--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642776.9362810461</v>
+        <v>-643479.0719654205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446118.202799313</v>
+        <v>2446118.202799309</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>186.6415693192374</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689128</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>103.2847877659045</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94.73270123918806</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820835</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.50923699120978</v>
+        <v>18.50923699120981</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.18246213585462</v>
       </c>
       <c r="U11" t="n">
-        <v>72.6726250995568</v>
+        <v>72.67262509955683</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>149.1209360183648</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.4936654370899</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>20.40912598010603</v>
+      </c>
+      <c r="U12" t="n">
+        <v>47.29170902643627</v>
+      </c>
+      <c r="V12" t="n">
+        <v>84.44218373594749</v>
+      </c>
+      <c r="W12" t="n">
+        <v>73.06366070914947</v>
+      </c>
+      <c r="X12" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="U12" t="n">
-        <v>198.6988396730519</v>
-      </c>
-      <c r="V12" t="n">
-        <v>54.16926469765511</v>
-      </c>
-      <c r="W12" t="n">
-        <v>73.06366070914945</v>
-      </c>
-      <c r="X12" t="n">
-        <v>27.14166275170732</v>
-      </c>
       <c r="Y12" t="n">
-        <v>27.0513733255342</v>
+        <v>27.05137332553423</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167137</v>
+        <v>1.200657730167165</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875478</v>
+        <v>41.30999778875481</v>
       </c>
       <c r="T13" t="n">
-        <v>48.3151117525519</v>
+        <v>48.31511175255193</v>
       </c>
       <c r="U13" t="n">
         <v>107.6749517316489</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205784</v>
+        <v>73.50632087205787</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8916758848208</v>
+        <v>107.8916758848209</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726699</v>
+        <v>47.07833293726702</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032463</v>
+        <v>39.95333090032466</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>194.6702697841913</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.50923699120973</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.18246213585454</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.67262509955674</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>71.89579570789672</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266989</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>32.12255017070874</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S15" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>198.6988396730519</v>
+        <v>167.4156646399215</v>
       </c>
       <c r="U15" t="n">
-        <v>47.29170902643624</v>
+        <v>47.29170902643618</v>
       </c>
       <c r="V15" t="n">
-        <v>54.16926469765511</v>
+        <v>54.16926469765505</v>
       </c>
       <c r="W15" t="n">
-        <v>73.06366070914945</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="X15" t="n">
-        <v>27.14166275170732</v>
+        <v>27.14166275170726</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.0513733255342</v>
+        <v>27.05137332553414</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730167137</v>
+        <v>1.20065773016708</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875478</v>
+        <v>41.30999778875472</v>
       </c>
       <c r="T16" t="n">
-        <v>48.3151117525519</v>
+        <v>48.31511175255184</v>
       </c>
       <c r="U16" t="n">
-        <v>107.6749517316489</v>
+        <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205784</v>
+        <v>73.50632087205778</v>
       </c>
       <c r="W16" t="n">
         <v>107.8916758848208</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726699</v>
+        <v>47.07833293726694</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032463</v>
+        <v>39.95333090032457</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228515</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981212</v>
       </c>
       <c r="D17" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948753</v>
       </c>
       <c r="E17" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106635</v>
       </c>
       <c r="F17" t="n">
-        <v>106.6701106705158</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G17" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H17" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515464</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893948</v>
       </c>
       <c r="W17" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621758</v>
       </c>
       <c r="X17" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727361</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485816</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>40.67740975165571</v>
+        <v>124.3708347682017</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S18" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.8109874335744</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.8109874335739</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228515</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981212</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948753</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106635</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705158</v>
+        <v>106.670110670516</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875703</v>
       </c>
       <c r="H20" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515467</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893948</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621758</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727361</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485816</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>8.480754334157155</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="U21" t="n">
-        <v>124.3398353738861</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>120.677846924689</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228526</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981224</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948764</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106647</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705161</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875704</v>
       </c>
       <c r="H23" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515478</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893959</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621741</v>
+        <v>49.0350336462177</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727372</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485827</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>104.9934498852796</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>124.3708347682017</v>
       </c>
       <c r="W24" t="n">
-        <v>198.6988396730516</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7571345188087</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>132.7526925878176</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>101.8109874335739</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C26" t="n">
         <v>216.270801548151</v>
@@ -2561,7 +2561,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E26" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F26" t="n">
         <v>257.8739555188549</v>
@@ -2570,10 +2570,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H26" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I26" t="n">
-        <v>41.37572738712197</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T26" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U26" t="n">
         <v>102.3018573284704</v>
@@ -2621,7 +2621,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>67.27732722939461</v>
       </c>
       <c r="C27" t="n">
-        <v>168.2299034228913</v>
+        <v>23.70640876545923</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.5415757500918</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S27" t="n">
-        <v>17.50009403269624</v>
+        <v>17.50009403269627</v>
       </c>
       <c r="T27" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U27" t="n">
-        <v>76.92094125534986</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>102.6928929380631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C28" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H28" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877389</v>
       </c>
       <c r="S28" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T28" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U28" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V28" t="n">
         <v>103.1355531009715</v>
@@ -2776,10 +2776,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X28" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C29" t="n">
-        <v>216.270801548151</v>
+        <v>216.2708015481511</v>
       </c>
       <c r="D29" t="n">
-        <v>205.6809513978264</v>
+        <v>205.6809513978265</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37572738712197</v>
+        <v>41.37572738712203</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012346</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476827</v>
       </c>
       <c r="U29" t="n">
-        <v>102.3018573284704</v>
+        <v>102.3018573284705</v>
       </c>
       <c r="V29" t="n">
         <v>178.7501682472784</v>
@@ -2855,10 +2855,10 @@
         <v>200.2388784945565</v>
       </c>
       <c r="X29" t="n">
-        <v>220.7290104556125</v>
+        <v>220.7290104556126</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.5310934270108</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>8.642990232544463</v>
       </c>
       <c r="F30" t="n">
-        <v>130.8926755110263</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S30" t="n">
-        <v>17.50009403269624</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T30" t="n">
         <v>199.0404484318762</v>
@@ -2928,13 +2928,13 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V30" t="n">
-        <v>83.79849692656873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>102.6928929380631</v>
+        <v>112.978612267682</v>
       </c>
       <c r="X30" t="n">
-        <v>56.77089498062094</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908082</v>
       </c>
       <c r="C31" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577135</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595214</v>
+        <v>18.7550442959522</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387601</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877391</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766845</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146558</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618067</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923831</v>
       </c>
     </row>
     <row r="32">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.53109342701083</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>146.5944598842326</v>
+        <v>23.70640876545923</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>18.92870956216331</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S33" t="n">
-        <v>17.50009403269627</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T33" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U33" t="n">
-        <v>76.92094125534989</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>102.6928929380631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717061</v>
       </c>
       <c r="C35" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792331</v>
       </c>
       <c r="D35" t="n">
-        <v>153.2504698289084</v>
+        <v>153.2504698289085</v>
       </c>
       <c r="E35" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804873</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4434739499369</v>
+        <v>205.443473949937</v>
       </c>
       <c r="G35" t="n">
-        <v>213.3488487669912</v>
+        <v>213.3488487669913</v>
       </c>
       <c r="H35" t="n">
         <v>132.7032930445756</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585022</v>
+        <v>19.38121279585027</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955248</v>
       </c>
       <c r="V35" t="n">
         <v>126.3196866783604</v>
@@ -3329,7 +3329,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X35" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866946</v>
       </c>
       <c r="Y35" t="n">
         <v>184.8053668642791</v>
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>34.57363346744317</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
-        <v>24.49045968643186</v>
+        <v>24.49045968643192</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>128.429189749574</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.5087484487504</v>
+        <v>18.50874844875046</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254752</v>
+        <v>25.51386241254758</v>
       </c>
       <c r="U37" t="n">
-        <v>84.87370239164453</v>
+        <v>84.87370239164458</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205347</v>
+        <v>50.70507153205352</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481647</v>
+        <v>85.09042654481652</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726262</v>
+        <v>24.27708359726267</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032025</v>
+        <v>17.15208156032031</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C38" t="n">
-        <v>163.8403199792331</v>
+        <v>163.8403199792329</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289083</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F38" t="n">
-        <v>205.443473949937</v>
+        <v>205.4434739499368</v>
       </c>
       <c r="G38" t="n">
-        <v>213.3488487669913</v>
+        <v>213.3488487669911</v>
       </c>
       <c r="H38" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445754</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585027</v>
+        <v>19.38121279585013</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955248</v>
+        <v>49.87137575955233</v>
       </c>
       <c r="V38" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783603</v>
       </c>
       <c r="W38" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256384</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866946</v>
+        <v>168.2985288866944</v>
       </c>
       <c r="Y38" t="n">
-        <v>184.8053668642791</v>
+        <v>184.805366864279</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>32.68157900620206</v>
       </c>
       <c r="C39" t="n">
-        <v>86.57741245335728</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0645880011306</v>
@@ -3600,7 +3600,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9230314782064</v>
+        <v>24.49045968643177</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>50.26241136914513</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875046</v>
+        <v>18.50874844875032</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254744</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164444</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205338</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481638</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726267</v>
+        <v>24.27708359726253</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032017</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717059</v>
       </c>
       <c r="C41" t="n">
-        <v>163.840319979233</v>
+        <v>163.8403199792329</v>
       </c>
       <c r="D41" t="n">
-        <v>153.2504698289084</v>
+        <v>153.2504698289083</v>
       </c>
       <c r="E41" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804871</v>
       </c>
       <c r="F41" t="n">
-        <v>205.4434739499369</v>
+        <v>205.4434739499368</v>
       </c>
       <c r="G41" t="n">
-        <v>213.3488487669912</v>
+        <v>213.3488487669911</v>
       </c>
       <c r="H41" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445754</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585022</v>
+        <v>19.38121279585008</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955227</v>
       </c>
       <c r="V41" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783602</v>
       </c>
       <c r="W41" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256383</v>
       </c>
       <c r="X41" t="n">
-        <v>168.2985288866945</v>
+        <v>168.2985288866944</v>
       </c>
       <c r="Y41" t="n">
-        <v>184.8053668642791</v>
+        <v>184.8053668642789</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,7 +3825,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U42" t="n">
-        <v>184.7282137620236</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>132.6172363309592</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.250123985529825</v>
+        <v>4.250123985529683</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.5087484487504</v>
+        <v>18.50874844875026</v>
       </c>
       <c r="T43" t="n">
-        <v>25.51386241254752</v>
+        <v>25.51386241254738</v>
       </c>
       <c r="U43" t="n">
-        <v>84.87370239164453</v>
+        <v>84.87370239164439</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70507153205347</v>
+        <v>50.70507153205332</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09042654481647</v>
+        <v>85.09042654481632</v>
       </c>
       <c r="X43" t="n">
-        <v>24.27708359726262</v>
+        <v>24.27708359726248</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.15208156032025</v>
+        <v>17.15208156032011</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C44" t="n">
-        <v>163.8403199792331</v>
+        <v>163.8403199792329</v>
       </c>
       <c r="D44" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289083</v>
       </c>
       <c r="E44" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F44" t="n">
-        <v>205.443473949937</v>
+        <v>205.4434739499368</v>
       </c>
       <c r="G44" t="n">
-        <v>213.3488487669913</v>
+        <v>213.3488487669911</v>
       </c>
       <c r="H44" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.38121279585027</v>
+        <v>19.38121279585013</v>
       </c>
       <c r="U44" t="n">
-        <v>49.87137575955247</v>
+        <v>49.87137575955233</v>
       </c>
       <c r="V44" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783603</v>
       </c>
       <c r="W44" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256384</v>
       </c>
       <c r="X44" t="n">
-        <v>168.2985288866946</v>
+        <v>168.2985288866944</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.8053668642791</v>
+        <v>184.805366864279</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.9093618969176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,10 +4071,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,10 +4107,10 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>24.49045968643192</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4119,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>4.340413411702855</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>157.4165706114232</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50874844875046</v>
+        <v>18.50874844875032</v>
       </c>
       <c r="T46" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254744</v>
       </c>
       <c r="U46" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164444</v>
       </c>
       <c r="V46" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205338</v>
       </c>
       <c r="W46" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481638</v>
       </c>
       <c r="X46" t="n">
-        <v>24.27708359726267</v>
+        <v>24.27708359726253</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032017</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>501.9865690317847</v>
+        <v>308.7508133204523</v>
       </c>
       <c r="C11" t="n">
-        <v>501.9865690317847</v>
+        <v>120.2239756242527</v>
       </c>
       <c r="D11" t="n">
-        <v>324.1565496692465</v>
+        <v>120.2239756242527</v>
       </c>
       <c r="E11" t="n">
-        <v>324.1565496692465</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F11" t="n">
-        <v>324.1565496692465</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G11" t="n">
-        <v>123.4506510095982</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H11" t="n">
-        <v>27.7610537982971</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I11" t="n">
         <v>15.89590717384415</v>
       </c>
       <c r="J11" t="n">
-        <v>40.78337989881277</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K11" t="n">
-        <v>40.78337989881277</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L11" t="n">
-        <v>237.4952311751341</v>
+        <v>381.2731014319615</v>
       </c>
       <c r="M11" t="n">
-        <v>434.2070824514554</v>
+        <v>577.984952708283</v>
       </c>
       <c r="N11" t="n">
-        <v>434.2070824514554</v>
+        <v>630.9189337277771</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9189337277768</v>
+        <v>630.9189337277771</v>
       </c>
       <c r="P11" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="S11" t="n">
-        <v>776.0991597111874</v>
+        <v>776.0991597111877</v>
       </c>
       <c r="T11" t="n">
-        <v>776.0991597111874</v>
+        <v>733.4906120992133</v>
       </c>
       <c r="U11" t="n">
-        <v>702.6924676914331</v>
+        <v>660.0839200794591</v>
       </c>
       <c r="V11" t="n">
-        <v>702.6924676914331</v>
+        <v>509.4567119801007</v>
       </c>
       <c r="W11" t="n">
-        <v>702.6924676914331</v>
+        <v>509.4567119801007</v>
       </c>
       <c r="X11" t="n">
-        <v>702.6924676914331</v>
+        <v>509.4567119801007</v>
       </c>
       <c r="Y11" t="n">
-        <v>501.9865690317847</v>
+        <v>308.7508133204523</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.49504933135914</v>
+        <v>339.2833461162224</v>
       </c>
       <c r="C12" t="n">
-        <v>96.49504933135914</v>
+        <v>164.8303168350954</v>
       </c>
       <c r="D12" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E12" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F12" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G12" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H12" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I12" t="n">
         <v>15.89590717384415</v>
@@ -5121,49 +5121,49 @@
         <v>15.89590717384415</v>
       </c>
       <c r="K12" t="n">
-        <v>185.844000611936</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L12" t="n">
-        <v>382.5558518882573</v>
+        <v>212.6077584501656</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5558518882573</v>
+        <v>212.6077584501656</v>
       </c>
       <c r="N12" t="n">
-        <v>382.5558518882573</v>
+        <v>296.7280853900695</v>
       </c>
       <c r="O12" t="n">
-        <v>493.4399366663907</v>
+        <v>493.439936666391</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427121</v>
+        <v>690.1517879427124</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="R12" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="S12" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="T12" t="n">
-        <v>594.089460032559</v>
+        <v>774.1800799244239</v>
       </c>
       <c r="U12" t="n">
-        <v>393.3835613729107</v>
+        <v>726.4106768674176</v>
       </c>
       <c r="V12" t="n">
-        <v>338.6671323853802</v>
+        <v>641.1155417806019</v>
       </c>
       <c r="W12" t="n">
-        <v>264.8654549013909</v>
+        <v>567.3138642966126</v>
       </c>
       <c r="X12" t="n">
-        <v>237.4496339400704</v>
+        <v>366.6079656369641</v>
       </c>
       <c r="Y12" t="n">
-        <v>210.1250144193287</v>
+        <v>339.2833461162224</v>
       </c>
     </row>
     <row r="13">
@@ -5191,58 +5191,58 @@
         <v>15.89590717384415</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384415</v>
+        <v>34.19431789733142</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384415</v>
+        <v>64.10538551266036</v>
       </c>
       <c r="J13" t="n">
-        <v>15.89590717384415</v>
+        <v>64.10538551266036</v>
       </c>
       <c r="K13" t="n">
-        <v>20.74594372277243</v>
+        <v>68.95542206158865</v>
       </c>
       <c r="L13" t="n">
-        <v>82.47875529922223</v>
+        <v>130.6882336380384</v>
       </c>
       <c r="M13" t="n">
-        <v>279.1906065755436</v>
+        <v>314.324119838877</v>
       </c>
       <c r="N13" t="n">
-        <v>358.3082489034483</v>
+        <v>393.4417621667817</v>
       </c>
       <c r="O13" t="n">
-        <v>462.2373358596344</v>
+        <v>450.5034149035961</v>
       </c>
       <c r="P13" t="n">
-        <v>487.542755252221</v>
+        <v>475.8088342961828</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.542755252221</v>
+        <v>475.8088342961828</v>
       </c>
       <c r="R13" t="n">
-        <v>487.542755252221</v>
+        <v>487.5427552522211</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585293</v>
+        <v>445.8154847585294</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741334</v>
+        <v>397.0123415741335</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674173</v>
+        <v>288.2497640674175</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057427</v>
+        <v>214.0009551057429</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129944</v>
+        <v>105.0194643129945</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918937</v>
+        <v>57.46559265918943</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987156</v>
+        <v>17.10869275987159</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>601.7652796753398</v>
+        <v>193.7259265363824</v>
       </c>
       <c r="C14" t="n">
-        <v>413.2384419791404</v>
+        <v>193.7259265363824</v>
       </c>
       <c r="D14" t="n">
-        <v>413.2384419791404</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E14" t="n">
-        <v>212.532543319492</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J14" t="n">
-        <v>47.86977448817005</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K14" t="n">
-        <v>216.535117469966</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="L14" t="n">
-        <v>413.2469687462873</v>
+        <v>212.6077584501661</v>
       </c>
       <c r="M14" t="n">
-        <v>609.9588200226087</v>
+        <v>388.3644718664526</v>
       </c>
       <c r="N14" t="n">
-        <v>748.9527481072029</v>
+        <v>585.0763231427745</v>
       </c>
       <c r="O14" t="n">
-        <v>748.9527481072029</v>
+        <v>585.0763231427745</v>
       </c>
       <c r="P14" t="n">
-        <v>748.9527481072029</v>
+        <v>748.9527481072051</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="S14" t="n">
-        <v>794.7953586922074</v>
+        <v>776.0991597111896</v>
       </c>
       <c r="T14" t="n">
-        <v>794.7953586922074</v>
+        <v>733.4906120992154</v>
       </c>
       <c r="U14" t="n">
-        <v>794.7953586922074</v>
+        <v>660.0839200794611</v>
       </c>
       <c r="V14" t="n">
-        <v>794.7953586922074</v>
+        <v>660.0839200794611</v>
       </c>
       <c r="W14" t="n">
-        <v>794.7953586922074</v>
+        <v>587.4619042128988</v>
       </c>
       <c r="X14" t="n">
-        <v>601.7652796753398</v>
+        <v>394.4318251960312</v>
       </c>
       <c r="Y14" t="n">
-        <v>601.7652796753398</v>
+        <v>394.4318251960312</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>194.8774855214124</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C15" t="n">
-        <v>194.8774855214124</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D15" t="n">
-        <v>194.8774855214124</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J15" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K15" t="n">
-        <v>211.1940372584257</v>
+        <v>185.844000611936</v>
       </c>
       <c r="L15" t="n">
-        <v>407.9058885347471</v>
+        <v>382.5558518882579</v>
       </c>
       <c r="M15" t="n">
-        <v>407.9058885347471</v>
+        <v>493.4399366663924</v>
       </c>
       <c r="N15" t="n">
-        <v>407.9058885347471</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="O15" t="n">
-        <v>598.0835074158861</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="P15" t="n">
-        <v>794.7953586922074</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R15" t="n">
-        <v>794.7953586922074</v>
+        <v>711.1188348201669</v>
       </c>
       <c r="S15" t="n">
-        <v>626.611334191649</v>
+        <v>542.9348103196085</v>
       </c>
       <c r="T15" t="n">
-        <v>425.9054355320006</v>
+        <v>373.8280783600918</v>
       </c>
       <c r="U15" t="n">
-        <v>378.1360324749944</v>
+        <v>326.0586753030855</v>
       </c>
       <c r="V15" t="n">
-        <v>323.4196034874639</v>
+        <v>271.3422463155551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.6179260034746</v>
+        <v>70.63634765590622</v>
       </c>
       <c r="X15" t="n">
-        <v>222.202105042154</v>
+        <v>43.22052669458576</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.8774855214124</v>
+        <v>15.89590717384419</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K16" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277247</v>
       </c>
       <c r="L16" t="n">
-        <v>82.47875529922223</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M16" t="n">
-        <v>215.1279510246882</v>
+        <v>279.1906065755442</v>
       </c>
       <c r="N16" t="n">
-        <v>294.2455933525928</v>
+        <v>358.3082489034488</v>
       </c>
       <c r="O16" t="n">
-        <v>351.3072460894073</v>
+        <v>462.237335859634</v>
       </c>
       <c r="P16" t="n">
-        <v>376.6126654819939</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.542755252221</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="R16" t="n">
-        <v>487.542755252221</v>
+        <v>487.5427552522206</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585293</v>
+        <v>445.815484758529</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741334</v>
+        <v>397.0123415741331</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674173</v>
+        <v>288.2497640674171</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057427</v>
+        <v>214.0009551057425</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129944</v>
+        <v>105.0194643129943</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918937</v>
+        <v>57.4655926591893</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987156</v>
+        <v>17.10869275987155</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461738</v>
+        <v>476.9504770461753</v>
       </c>
       <c r="C17" t="n">
-        <v>411.226278359495</v>
+        <v>411.2262783594963</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064775</v>
+        <v>356.1988980064785</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619661</v>
+        <v>273.6489636619665</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260916</v>
+        <v>165.9013771260918</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228323</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817009</v>
       </c>
       <c r="K17" t="n">
-        <v>47.86977448817005</v>
+        <v>216.535117469966</v>
       </c>
       <c r="L17" t="n">
-        <v>237.4952311751341</v>
+        <v>413.2469687462879</v>
       </c>
       <c r="M17" t="n">
-        <v>237.4952311751341</v>
+        <v>609.9588200226098</v>
       </c>
       <c r="N17" t="n">
-        <v>434.2070824514554</v>
+        <v>609.9588200226098</v>
       </c>
       <c r="O17" t="n">
-        <v>630.9189337277768</v>
+        <v>630.9189337277791</v>
       </c>
       <c r="P17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023697</v>
+        <v>766.9707896023717</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859884</v>
+        <v>717.4404525859903</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786414</v>
+        <v>647.2130125786432</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565643</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56.98419985228426</v>
+        <v>141.5230130003106</v>
       </c>
       <c r="C18" t="n">
-        <v>56.98419985228426</v>
+        <v>141.5230130003106</v>
       </c>
       <c r="D18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J18" t="n">
-        <v>41.24594382033391</v>
+        <v>41.24594382033396</v>
       </c>
       <c r="K18" t="n">
-        <v>100.0162341137481</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L18" t="n">
-        <v>296.7280853900694</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="M18" t="n">
-        <v>296.7280853900694</v>
+        <v>407.9058885347476</v>
       </c>
       <c r="N18" t="n">
-        <v>296.7280853900694</v>
+        <v>407.9058885347476</v>
       </c>
       <c r="O18" t="n">
-        <v>493.4399366663907</v>
+        <v>604.6177398110696</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427121</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R18" t="n">
-        <v>794.7953586922074</v>
+        <v>711.1188348201669</v>
       </c>
       <c r="S18" t="n">
-        <v>626.611334191649</v>
+        <v>542.9348103196085</v>
       </c>
       <c r="T18" t="n">
-        <v>425.9054355320006</v>
+        <v>342.2289116599595</v>
       </c>
       <c r="U18" t="n">
-        <v>425.9054355320006</v>
+        <v>342.2289116599595</v>
       </c>
       <c r="V18" t="n">
-        <v>225.1995368723523</v>
+        <v>342.2289116599595</v>
       </c>
       <c r="W18" t="n">
-        <v>225.1995368723523</v>
+        <v>141.5230130003106</v>
       </c>
       <c r="X18" t="n">
-        <v>225.1995368723523</v>
+        <v>141.5230130003106</v>
       </c>
       <c r="Y18" t="n">
-        <v>225.1995368723523</v>
+        <v>141.5230130003106</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277247</v>
       </c>
       <c r="L19" t="n">
-        <v>82.47875529922223</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M19" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N19" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O19" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P19" t="n">
         <v>319.4411870795273</v>
@@ -5695,28 +5695,28 @@
         <v>319.4411870795273</v>
       </c>
       <c r="R19" t="n">
-        <v>319.4411870795273</v>
+        <v>216.6018058334931</v>
       </c>
       <c r="S19" t="n">
-        <v>319.4411870795273</v>
+        <v>216.6018058334931</v>
       </c>
       <c r="T19" t="n">
-        <v>319.4411870795273</v>
+        <v>216.6018058334931</v>
       </c>
       <c r="U19" t="n">
-        <v>118.7352884198789</v>
+        <v>216.6018058334931</v>
       </c>
       <c r="V19" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="X19" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="Y19" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384419</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461737</v>
+        <v>476.9504770461751</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594949</v>
+        <v>411.2262783594963</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064774</v>
+        <v>356.1988980064785</v>
       </c>
       <c r="E20" t="n">
-        <v>273.648963661966</v>
+        <v>273.6489636619671</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260914</v>
+        <v>165.9013771260923</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228326</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J20" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817009</v>
       </c>
       <c r="K20" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817009</v>
       </c>
       <c r="L20" t="n">
-        <v>244.5816257644914</v>
+        <v>237.4952311751353</v>
       </c>
       <c r="M20" t="n">
-        <v>244.5816257644914</v>
+        <v>434.2070824514572</v>
       </c>
       <c r="N20" t="n">
-        <v>388.3644718664509</v>
+        <v>434.2070824514572</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0763231427723</v>
+        <v>630.9189337277791</v>
       </c>
       <c r="P20" t="n">
-        <v>748.9527481072029</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023697</v>
+        <v>766.9707896023717</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859884</v>
+        <v>717.4404525859903</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786414</v>
+        <v>647.2130125786432</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565626</v>
+        <v>560.3119988565641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.89590717384415</v>
+        <v>24.46232569319486</v>
       </c>
       <c r="C21" t="n">
-        <v>15.89590717384415</v>
+        <v>24.46232569319486</v>
       </c>
       <c r="D21" t="n">
-        <v>15.89590717384415</v>
+        <v>24.46232569319486</v>
       </c>
       <c r="E21" t="n">
-        <v>15.89590717384415</v>
+        <v>24.46232569319486</v>
       </c>
       <c r="F21" t="n">
-        <v>15.89590717384415</v>
+        <v>24.46232569319486</v>
       </c>
       <c r="G21" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H21" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J21" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K21" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="L21" t="n">
-        <v>237.9577950966552</v>
+        <v>100.0162341137487</v>
       </c>
       <c r="M21" t="n">
-        <v>237.9577950966552</v>
+        <v>296.7280853900705</v>
       </c>
       <c r="N21" t="n">
-        <v>434.6696463729766</v>
+        <v>296.7280853900705</v>
       </c>
       <c r="O21" t="n">
-        <v>598.0835074158861</v>
+        <v>493.4399366663924</v>
       </c>
       <c r="P21" t="n">
-        <v>794.7953586922074</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922074</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R21" t="n">
-        <v>711.1188348201646</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="S21" t="n">
-        <v>711.1188348201646</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="T21" t="n">
-        <v>711.1188348201646</v>
+        <v>594.0894600325607</v>
       </c>
       <c r="U21" t="n">
-        <v>585.5230415132089</v>
+        <v>594.0894600325607</v>
       </c>
       <c r="V21" t="n">
-        <v>585.5230415132089</v>
+        <v>393.3835613729118</v>
       </c>
       <c r="W21" t="n">
-        <v>585.5230415132089</v>
+        <v>393.3835613729118</v>
       </c>
       <c r="X21" t="n">
-        <v>384.8171428535605</v>
+        <v>192.6776627132629</v>
       </c>
       <c r="Y21" t="n">
-        <v>184.1112441939122</v>
+        <v>192.6776627132629</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277247</v>
       </c>
       <c r="L22" t="n">
-        <v>82.47875529922223</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M22" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N22" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O22" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P22" t="n">
         <v>319.4411870795273</v>
@@ -5944,16 +5944,16 @@
         <v>319.4411870795273</v>
       </c>
       <c r="V22" t="n">
-        <v>197.5443720040838</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W22" t="n">
-        <v>197.5443720040838</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X22" t="n">
-        <v>197.5443720040838</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.5443720040838</v>
+        <v>197.5443720040839</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461728</v>
+        <v>476.9504770461747</v>
       </c>
       <c r="C23" t="n">
-        <v>411.226278359494</v>
+        <v>411.2262783594956</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064766</v>
+        <v>356.1988980064777</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619654</v>
+        <v>273.6489636619661</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260911</v>
+        <v>165.9013771260912</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228302</v>
+        <v>50.16856350228337</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817002</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K23" t="n">
-        <v>216.5351174699659</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="L23" t="n">
-        <v>216.5351174699659</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="M23" t="n">
-        <v>237.4952311751335</v>
+        <v>212.6077584501661</v>
       </c>
       <c r="N23" t="n">
-        <v>434.2070824514546</v>
+        <v>388.3644718664526</v>
       </c>
       <c r="O23" t="n">
-        <v>630.9189337277757</v>
+        <v>585.0763231427745</v>
       </c>
       <c r="P23" t="n">
-        <v>794.7953586922063</v>
+        <v>748.9527481072051</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023683</v>
+        <v>766.9707896023716</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859873</v>
+        <v>717.4404525859901</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786404</v>
+        <v>647.2130125786429</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565616</v>
+        <v>560.3119988565636</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>488.0354702494475</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C24" t="n">
-        <v>313.5824409683205</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D24" t="n">
-        <v>313.5824409683205</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E24" t="n">
-        <v>154.344985962865</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F24" t="n">
-        <v>154.344985962865</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J24" t="n">
-        <v>15.89590717384413</v>
+        <v>41.24594382033396</v>
       </c>
       <c r="K24" t="n">
-        <v>185.844000611936</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L24" t="n">
-        <v>296.7280853900688</v>
+        <v>296.7280853900705</v>
       </c>
       <c r="M24" t="n">
-        <v>493.4399366663899</v>
+        <v>493.4399366663924</v>
       </c>
       <c r="N24" t="n">
-        <v>493.4399366663899</v>
+        <v>493.4399366663924</v>
       </c>
       <c r="O24" t="n">
-        <v>690.1517879427109</v>
+        <v>493.4399366663924</v>
       </c>
       <c r="P24" t="n">
-        <v>690.1517879427109</v>
+        <v>690.1517879427143</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922063</v>
+        <v>794.7953586922097</v>
       </c>
       <c r="R24" t="n">
-        <v>794.7953586922063</v>
+        <v>711.1188348201669</v>
       </c>
       <c r="S24" t="n">
-        <v>794.7953586922063</v>
+        <v>542.9348103196085</v>
       </c>
       <c r="T24" t="n">
-        <v>688.7413689090955</v>
+        <v>342.2289116599595</v>
       </c>
       <c r="U24" t="n">
-        <v>688.7413689090955</v>
+        <v>342.2289116599595</v>
       </c>
       <c r="V24" t="n">
-        <v>688.7413689090955</v>
+        <v>216.6018058334931</v>
       </c>
       <c r="W24" t="n">
-        <v>488.0354702494475</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="X24" t="n">
-        <v>488.0354702494475</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="Y24" t="n">
-        <v>488.0354702494475</v>
+        <v>15.89590717384419</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="C25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="D25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="E25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="F25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="G25" t="n">
-        <v>149.9895360504276</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="H25" t="n">
-        <v>149.9895360504276</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384413</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277241</v>
+        <v>20.74594372277247</v>
       </c>
       <c r="L25" t="n">
-        <v>82.4787552992222</v>
+        <v>82.47875529922226</v>
       </c>
       <c r="M25" t="n">
-        <v>157.9564726222215</v>
+        <v>157.9564726222216</v>
       </c>
       <c r="N25" t="n">
         <v>237.0741149501262</v>
       </c>
       <c r="O25" t="n">
-        <v>294.1357676869406</v>
+        <v>294.1357676869407</v>
       </c>
       <c r="P25" t="n">
         <v>319.4411870795273</v>
@@ -6172,25 +6172,25 @@
         <v>319.4411870795273</v>
       </c>
       <c r="S25" t="n">
-        <v>319.4411870795273</v>
+        <v>118.7352884198784</v>
       </c>
       <c r="T25" t="n">
-        <v>319.4411870795273</v>
+        <v>118.7352884198784</v>
       </c>
       <c r="U25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="V25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="W25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="X25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
       <c r="Y25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384419</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.357186220346</v>
+        <v>813.3571862203466</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720081</v>
       </c>
       <c r="G26" t="n">
-        <v>284.4144732357358</v>
+        <v>284.4144732357363</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483344</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I26" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J26" t="n">
         <v>235.1029331023914</v>
@@ -6248,28 +6248,28 @@
         <v>2749.288476315058</v>
       </c>
       <c r="R26" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S26" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T26" t="n">
         <v>2659.688041972995</v>
       </c>
       <c r="U26" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>782.8151916130471</v>
+        <v>498.3827848872262</v>
       </c>
       <c r="C27" t="n">
-        <v>612.8859962363892</v>
+        <v>474.4369174473684</v>
       </c>
       <c r="D27" t="n">
-        <v>463.9515865751379</v>
+        <v>325.5025077861171</v>
       </c>
       <c r="E27" t="n">
-        <v>304.7141315696824</v>
+        <v>166.2650527806616</v>
       </c>
       <c r="F27" t="n">
-        <v>304.7141315696824</v>
+        <v>166.2650527806616</v>
       </c>
       <c r="G27" t="n">
         <v>166.2650527806616</v>
       </c>
       <c r="H27" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I27" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J27" t="n">
         <v>80.96703311392727</v>
@@ -6327,28 +6327,28 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R27" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S27" t="n">
-        <v>1984.273509194222</v>
+        <v>1900.59698532218</v>
       </c>
       <c r="T27" t="n">
-        <v>1783.222551182226</v>
+        <v>1699.546027310183</v>
       </c>
       <c r="U27" t="n">
-        <v>1705.524630722277</v>
+        <v>1471.340945008965</v>
       </c>
       <c r="V27" t="n">
-        <v>1470.372522490534</v>
+        <v>1236.188836777222</v>
       </c>
       <c r="W27" t="n">
-        <v>1366.642327603602</v>
+        <v>981.9514800490206</v>
       </c>
       <c r="X27" t="n">
-        <v>1158.790827398069</v>
+        <v>774.0999798434877</v>
       </c>
       <c r="Y27" t="n">
-        <v>951.0305286331152</v>
+        <v>566.3396810785339</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.8663305314048</v>
+        <v>97.77865245295446</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43730944476714</v>
+        <v>79.34963136631676</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736488</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736488</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H28" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I28" t="n">
-        <v>56.19512417614199</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J28" t="n">
-        <v>127.649107042892</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="K28" t="n">
-        <v>132.4991435918203</v>
+        <v>60.46703301636579</v>
       </c>
       <c r="L28" t="n">
-        <v>341.744024488898</v>
+        <v>213.2262697917064</v>
       </c>
       <c r="M28" t="n">
-        <v>417.2217418118973</v>
+        <v>288.7039871147057</v>
       </c>
       <c r="N28" t="n">
-        <v>496.339384139802</v>
+        <v>515.3336987632383</v>
       </c>
       <c r="O28" t="n">
-        <v>700.9131061972444</v>
+        <v>719.9074208206807</v>
       </c>
       <c r="P28" t="n">
-        <v>832.8976681553198</v>
+        <v>745.2128402132673</v>
       </c>
       <c r="Q28" t="n">
-        <v>832.8976681553198</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="R28" t="n">
-        <v>814.941317833326</v>
+        <v>808.8536397548761</v>
       </c>
       <c r="S28" t="n">
-        <v>743.2855299366913</v>
+        <v>737.1978518582413</v>
       </c>
       <c r="T28" t="n">
-        <v>664.5538693493525</v>
+        <v>658.4661912709023</v>
       </c>
       <c r="U28" t="n">
-        <v>525.8627744396933</v>
+        <v>519.7750963612431</v>
       </c>
       <c r="V28" t="n">
-        <v>421.6854480750757</v>
+        <v>415.5977699966254</v>
       </c>
       <c r="W28" t="n">
-        <v>282.7754398793843</v>
+        <v>276.687761800934</v>
       </c>
       <c r="X28" t="n">
-        <v>205.2930508226362</v>
+        <v>199.2053727441859</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.0076335203753</v>
+        <v>128.919955441925</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1048.638276977321</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203459</v>
+        <v>813.3571862203462</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720076</v>
+        <v>552.8784432720079</v>
       </c>
       <c r="G29" t="n">
-        <v>284.414473235736</v>
+        <v>284.4144732357358</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483344</v>
+        <v>97.41066049483351</v>
       </c>
       <c r="I29" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J29" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K29" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048151</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464272</v>
       </c>
       <c r="M29" t="n">
         <v>1415.424320284889</v>
@@ -6485,22 +6485,22 @@
         <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T29" t="n">
         <v>2659.688041972995</v>
       </c>
       <c r="U29" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W29" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
         <v>1950.57701719934</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1000.152991423543</v>
+        <v>387.7347285740021</v>
       </c>
       <c r="C30" t="n">
-        <v>825.6999621424156</v>
+        <v>213.2816992928751</v>
       </c>
       <c r="D30" t="n">
-        <v>676.7655524811644</v>
+        <v>64.34728963162384</v>
       </c>
       <c r="E30" t="n">
-        <v>517.5280974757088</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="F30" t="n">
-        <v>385.3132737271974</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="G30" t="n">
-        <v>246.8641949381766</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2161386249525</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I30" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J30" t="n">
         <v>80.96703311392727</v>
@@ -6567,25 +6567,25 @@
         <v>1918.273847981469</v>
       </c>
       <c r="S30" t="n">
-        <v>1900.59698532218</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.546027310183</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U30" t="n">
-        <v>1471.340945008965</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V30" t="n">
-        <v>1386.695998618491</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W30" t="n">
-        <v>1282.965803731559</v>
+        <v>971.5618645645568</v>
       </c>
       <c r="X30" t="n">
-        <v>1225.621465367295</v>
+        <v>763.710364359024</v>
       </c>
       <c r="Y30" t="n">
-        <v>1017.861166602341</v>
+        <v>555.9500655940701</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.16140348555203</v>
+        <v>97.77865245295463</v>
       </c>
       <c r="C31" t="n">
-        <v>79.73238239891435</v>
+        <v>79.3496313663169</v>
       </c>
       <c r="D31" t="n">
-        <v>79.73238239891435</v>
+        <v>79.73238239891458</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943884</v>
+        <v>82.27482869943901</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736499</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953449</v>
       </c>
       <c r="H31" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I31" t="n">
-        <v>55.6169964674375</v>
+        <v>56.19512417614194</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0709793341875</v>
+        <v>56.19512417614194</v>
       </c>
       <c r="K31" t="n">
-        <v>233.4733591114563</v>
+        <v>61.04516072507022</v>
       </c>
       <c r="L31" t="n">
-        <v>442.7182400085341</v>
+        <v>270.2900416221479</v>
       </c>
       <c r="M31" t="n">
-        <v>518.1959573315334</v>
+        <v>493.2798282657751</v>
       </c>
       <c r="N31" t="n">
-        <v>597.313599659438</v>
+        <v>719.9095399143077</v>
       </c>
       <c r="O31" t="n">
-        <v>801.8873217168804</v>
+        <v>776.9711926511221</v>
       </c>
       <c r="P31" t="n">
-        <v>827.192741109467</v>
+        <v>826.8099900768702</v>
       </c>
       <c r="Q31" t="n">
-        <v>827.192741109467</v>
+        <v>826.8099900768702</v>
       </c>
       <c r="R31" t="n">
-        <v>809.2363907874732</v>
+        <v>808.8536397548764</v>
       </c>
       <c r="S31" t="n">
-        <v>737.5806028908385</v>
+        <v>737.1978518582416</v>
       </c>
       <c r="T31" t="n">
-        <v>658.8489423034996</v>
+        <v>658.4661912709026</v>
       </c>
       <c r="U31" t="n">
-        <v>520.1578473938405</v>
+        <v>519.7750963612434</v>
       </c>
       <c r="V31" t="n">
-        <v>415.9805210292228</v>
+        <v>415.5977699966257</v>
       </c>
       <c r="W31" t="n">
-        <v>277.0705128335314</v>
+        <v>276.6877618009343</v>
       </c>
       <c r="X31" t="n">
-        <v>199.5881237767834</v>
+        <v>199.2053727441861</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.3027064745225</v>
+        <v>128.9199554419251</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203466</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F32" t="n">
         <v>552.8784432720083</v>
@@ -6692,22 +6692,22 @@
         <v>284.4144732357363</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483346</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I32" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023915</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048154</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464276</v>
       </c>
       <c r="M32" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N32" t="n">
         <v>1860.880600751948</v>
@@ -6722,10 +6722,10 @@
         <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S32" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T32" t="n">
         <v>2659.688041972995</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>849.6458295822737</v>
+        <v>247.6171822171964</v>
       </c>
       <c r="C33" t="n">
-        <v>701.5706175779983</v>
+        <v>223.6713147773386</v>
       </c>
       <c r="D33" t="n">
-        <v>552.636207916747</v>
+        <v>74.73690511608731</v>
       </c>
       <c r="E33" t="n">
-        <v>393.3987529112916</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="F33" t="n">
-        <v>246.8641949381766</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="G33" t="n">
-        <v>246.8641949381766</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2161386249525</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J33" t="n">
         <v>80.96703311392727</v>
@@ -6804,25 +6804,25 @@
         <v>1918.273847981469</v>
       </c>
       <c r="S33" t="n">
-        <v>1900.59698532218</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.546027310183</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U33" t="n">
-        <v>1621.848106850234</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V33" t="n">
-        <v>1386.695998618492</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W33" t="n">
-        <v>1282.965803731559</v>
+        <v>831.4443182077512</v>
       </c>
       <c r="X33" t="n">
-        <v>1075.114303526026</v>
+        <v>623.5928180022183</v>
       </c>
       <c r="Y33" t="n">
-        <v>867.3540047610725</v>
+        <v>415.8325192372644</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.7038497860766</v>
+        <v>101.3238842308805</v>
       </c>
       <c r="C34" t="n">
-        <v>82.27482869943893</v>
+        <v>82.89486314424276</v>
       </c>
       <c r="D34" t="n">
-        <v>82.27482869943893</v>
+        <v>83.27761417684047</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943893</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="F34" t="n">
         <v>85.82006047736493</v>
@@ -6850,58 +6850,58 @@
         <v>66.87557128953446</v>
       </c>
       <c r="H34" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I34" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J34" t="n">
-        <v>127.0709793341875</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="K34" t="n">
-        <v>131.9210158831158</v>
+        <v>207.9791023369937</v>
       </c>
       <c r="L34" t="n">
-        <v>341.1658967801935</v>
+        <v>417.2239832340715</v>
       </c>
       <c r="M34" t="n">
-        <v>564.1556834238207</v>
+        <v>640.2137698776987</v>
       </c>
       <c r="N34" t="n">
-        <v>643.2733257517253</v>
+        <v>719.3314122056033</v>
       </c>
       <c r="O34" t="n">
-        <v>722.8326181538027</v>
+        <v>776.3930649424177</v>
       </c>
       <c r="P34" t="n">
-        <v>748.1380375463893</v>
+        <v>801.6984843350043</v>
       </c>
       <c r="Q34" t="n">
-        <v>829.7351874099919</v>
+        <v>830.3552218547958</v>
       </c>
       <c r="R34" t="n">
-        <v>811.7788370879981</v>
+        <v>812.398871532802</v>
       </c>
       <c r="S34" t="n">
-        <v>740.1230491913633</v>
+        <v>740.7430836361672</v>
       </c>
       <c r="T34" t="n">
-        <v>661.3913886040243</v>
+        <v>662.0114230488282</v>
       </c>
       <c r="U34" t="n">
-        <v>522.7002936943652</v>
+        <v>523.3203281391691</v>
       </c>
       <c r="V34" t="n">
-        <v>418.5229673297475</v>
+        <v>419.1430017745514</v>
       </c>
       <c r="W34" t="n">
-        <v>279.6129591340562</v>
+        <v>280.23299357886</v>
       </c>
       <c r="X34" t="n">
-        <v>202.130570077308</v>
+        <v>202.7506045221119</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.8451527750471</v>
+        <v>132.465187219851</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>779.1083762046953</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405667</v>
+        <v>596.7873678405666</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850749</v>
+        <v>389.2687072850747</v>
       </c>
       <c r="G35" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416496</v>
       </c>
       <c r="H35" t="n">
         <v>39.72108929359336</v>
@@ -6935,31 +6935,31 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J35" t="n">
-        <v>271.113202681776</v>
+        <v>217.3185446021876</v>
       </c>
       <c r="K35" t="n">
-        <v>439.778545663572</v>
+        <v>385.9838875839835</v>
       </c>
       <c r="L35" t="n">
-        <v>741.03538075239</v>
+        <v>846.9230335788245</v>
       </c>
       <c r="M35" t="n">
-        <v>1048.634317070224</v>
+        <v>1154.521969896658</v>
       </c>
       <c r="N35" t="n">
-        <v>1540.182797078442</v>
+        <v>1452.466181043089</v>
       </c>
       <c r="O35" t="n">
-        <v>1776.335429130233</v>
+        <v>1688.61881309488</v>
       </c>
       <c r="P35" t="n">
-        <v>1940.211854094663</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.054464679668</v>
+        <v>1898.337848644315</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679668</v>
+        <v>1981.805372454361</v>
       </c>
       <c r="S35" t="n">
         <v>1986.054464679668</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>596.9900890625449</v>
+        <v>518.8650431495112</v>
       </c>
       <c r="C36" t="n">
-        <v>596.9900890625449</v>
+        <v>518.8650431495112</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0556794012937</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="E36" t="n">
-        <v>288.8182243958382</v>
+        <v>324.7047260557292</v>
       </c>
       <c r="F36" t="n">
-        <v>288.8182243958382</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="G36" t="n">
-        <v>150.3691456068174</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H36" t="n">
         <v>39.72108929359336</v>
@@ -7014,16 +7014,16 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K36" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898791</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670836</v>
+        <v>915.2426649670833</v>
       </c>
       <c r="N36" t="n">
         <v>1331.582698579977</v>
@@ -7056,10 +7056,10 @@
         <v>1102.692179140066</v>
       </c>
       <c r="X36" t="n">
-        <v>972.9657248475669</v>
+        <v>894.8406789345331</v>
       </c>
       <c r="Y36" t="n">
-        <v>765.205426082613</v>
+        <v>687.0803801695793</v>
       </c>
     </row>
     <row r="37">
@@ -7072,70 +7072,70 @@
         <v>39.72108929359336</v>
       </c>
       <c r="C37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38891695093577</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K37" t="n">
-        <v>50.23895349986405</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L37" t="n">
-        <v>111.9717650763138</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M37" t="n">
-        <v>187.4494823993131</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N37" t="n">
-        <v>266.5671247272178</v>
+        <v>266.5671247272182</v>
       </c>
       <c r="O37" t="n">
-        <v>323.6287774640322</v>
+        <v>323.6287774640327</v>
       </c>
       <c r="P37" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566193</v>
       </c>
       <c r="S37" t="n">
-        <v>330.2384913528306</v>
+        <v>330.238491352831</v>
       </c>
       <c r="T37" t="n">
-        <v>304.4669131583381</v>
+        <v>304.4669131583385</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415255</v>
+        <v>218.7359006415257</v>
       </c>
       <c r="V37" t="n">
-        <v>167.5186566697543</v>
+        <v>167.5186566697545</v>
       </c>
       <c r="W37" t="n">
-        <v>81.56873086690939</v>
+        <v>81.5687308669095</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300776</v>
+        <v>57.04642420300782</v>
       </c>
       <c r="Y37" t="n">
         <v>39.72108929359336</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283625</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773301</v>
+        <v>933.9068305773289</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046953</v>
+        <v>779.1083762046942</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405666</v>
+        <v>596.7873678405657</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850747</v>
+        <v>389.2687072850739</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416496</v>
+        <v>173.7648196416493</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I38" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J38" t="n">
-        <v>105.6169145636834</v>
+        <v>271.1132026817761</v>
       </c>
       <c r="K38" t="n">
-        <v>274.2822575454794</v>
+        <v>439.778545663572</v>
       </c>
       <c r="L38" t="n">
-        <v>535.8031574664635</v>
+        <v>701.2994455845562</v>
       </c>
       <c r="M38" t="n">
-        <v>843.4020937842976</v>
+        <v>1008.89838190239</v>
       </c>
       <c r="N38" t="n">
-        <v>1141.346304930728</v>
+        <v>1456.715273268394</v>
       </c>
       <c r="O38" t="n">
-        <v>1576.917183056376</v>
+        <v>1692.867905320184</v>
       </c>
       <c r="P38" t="n">
-        <v>1940.211854094663</v>
+        <v>1856.744330284615</v>
       </c>
       <c r="Q38" t="n">
-        <v>1986.054464679668</v>
+        <v>1902.586940869619</v>
       </c>
       <c r="R38" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057597</v>
+        <v>1966.477482057595</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027746</v>
+        <v>1916.102355027744</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.506711918291</v>
+        <v>1788.506711918289</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882291</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855327</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113631</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.4038562975363</v>
+        <v>771.4431183436719</v>
       </c>
       <c r="C39" t="n">
-        <v>515.9519245264684</v>
+        <v>596.9900890625449</v>
       </c>
       <c r="D39" t="n">
-        <v>515.9519245264684</v>
+        <v>448.0556794012937</v>
       </c>
       <c r="E39" t="n">
-        <v>515.9519245264684</v>
+        <v>288.8182243958382</v>
       </c>
       <c r="F39" t="n">
-        <v>369.4173665533533</v>
+        <v>288.8182243958382</v>
       </c>
       <c r="G39" t="n">
-        <v>230.9682877643324</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="H39" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008322</v>
+        <v>65.07112594008308</v>
       </c>
       <c r="K39" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781749</v>
       </c>
       <c r="L39" t="n">
-        <v>524.9398001898791</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N39" t="n">
-        <v>1331.582698579977</v>
+        <v>1331.582698579976</v>
       </c>
       <c r="O39" t="n">
         <v>1646.036812456933</v>
@@ -7272,31 +7272,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q39" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="R39" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S39" t="n">
-        <v>1734.193916307067</v>
+        <v>1734.193916307066</v>
       </c>
       <c r="T39" t="n">
-        <v>1533.14295829507</v>
+        <v>1734.193916307066</v>
       </c>
       <c r="U39" t="n">
-        <v>1304.937875993852</v>
+        <v>1709.456078239964</v>
       </c>
       <c r="V39" t="n">
-        <v>1069.785767762109</v>
+        <v>1474.303970008221</v>
       </c>
       <c r="W39" t="n">
-        <v>1019.015655268023</v>
+        <v>1220.066613280019</v>
       </c>
       <c r="X39" t="n">
-        <v>811.1641550624903</v>
+        <v>1012.215113074486</v>
       </c>
       <c r="Y39" t="n">
-        <v>603.4038562975363</v>
+        <v>804.4548143095326</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="C40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="D40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="E40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="G40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="H40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="K40" t="n">
-        <v>44.57112584252164</v>
+        <v>44.5711258425216</v>
       </c>
       <c r="L40" t="n">
         <v>106.3039374189714</v>
       </c>
       <c r="M40" t="n">
-        <v>187.4494823993136</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N40" t="n">
-        <v>266.5671247272182</v>
+        <v>266.5671247272171</v>
       </c>
       <c r="O40" t="n">
-        <v>323.6287774640327</v>
+        <v>323.6287774640315</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="S40" t="n">
-        <v>330.238491352831</v>
+        <v>330.23849135283</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583377</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415251</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697545</v>
+        <v>167.518656669754</v>
       </c>
       <c r="W40" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690918</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300782</v>
+        <v>57.04642420300763</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773303</v>
+        <v>933.9068305773302</v>
       </c>
       <c r="D41" t="n">
         <v>779.1083762046956</v>
       </c>
       <c r="E41" t="n">
-        <v>596.787367840567</v>
+        <v>596.7873678405672</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850752</v>
+        <v>389.2687072850755</v>
       </c>
       <c r="G41" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416493</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J41" t="n">
-        <v>111.4308917757531</v>
+        <v>271.1132026817762</v>
       </c>
       <c r="K41" t="n">
-        <v>479.5144808314058</v>
+        <v>439.7785456635721</v>
       </c>
       <c r="L41" t="n">
-        <v>741.03538075239</v>
+        <v>701.2994455845562</v>
       </c>
       <c r="M41" t="n">
-        <v>1048.634317070224</v>
+        <v>1008.89838190239</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.182797078442</v>
+        <v>1306.842593048821</v>
       </c>
       <c r="O41" t="n">
-        <v>1776.335429130233</v>
+        <v>1576.917183056374</v>
       </c>
       <c r="P41" t="n">
-        <v>1940.211854094663</v>
+        <v>1940.211854094661</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="T41" t="n">
-        <v>1966.477482057597</v>
+        <v>1966.477482057596</v>
       </c>
       <c r="U41" t="n">
-        <v>1916.102355027746</v>
+        <v>1916.102355027745</v>
       </c>
       <c r="V41" t="n">
-        <v>1788.506711918291</v>
+        <v>1788.50671191829</v>
       </c>
       <c r="W41" t="n">
         <v>1639.205300882292</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>728.6913071556224</v>
+        <v>807.3296200035629</v>
       </c>
       <c r="C42" t="n">
-        <v>554.2382778744955</v>
+        <v>632.8765907224359</v>
       </c>
       <c r="D42" t="n">
-        <v>405.3038682132442</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="E42" t="n">
-        <v>405.3038682132442</v>
+        <v>324.7047260557292</v>
       </c>
       <c r="F42" t="n">
-        <v>258.7693102401292</v>
+        <v>178.1701680826141</v>
       </c>
       <c r="G42" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008132</v>
       </c>
       <c r="K42" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781731</v>
       </c>
       <c r="L42" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898771</v>
       </c>
       <c r="M42" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670813</v>
       </c>
       <c r="N42" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579974</v>
       </c>
       <c r="O42" t="n">
-        <v>1646.036812456933</v>
+        <v>1646.036812456931</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.410893930172</v>
+        <v>1881.41089393017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="R42" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="S42" t="n">
-        <v>1817.870440179109</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="T42" t="n">
-        <v>1616.819482167113</v>
+        <v>1785.00350666767</v>
       </c>
       <c r="U42" t="n">
-        <v>1430.225326851938</v>
+        <v>1556.798424366451</v>
       </c>
       <c r="V42" t="n">
-        <v>1195.073218620195</v>
+        <v>1321.646316134708</v>
       </c>
       <c r="W42" t="n">
-        <v>940.8358618919934</v>
+        <v>1187.689511760002</v>
       </c>
       <c r="X42" t="n">
-        <v>732.9843616864606</v>
+        <v>979.8380115544691</v>
       </c>
       <c r="Y42" t="n">
-        <v>728.6913071556224</v>
+        <v>975.544957023631</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="E43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="G43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="H43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="K43" t="n">
-        <v>44.57112584252164</v>
+        <v>44.5711258425216</v>
       </c>
       <c r="L43" t="n">
         <v>106.3039374189714</v>
@@ -7579,40 +7579,40 @@
         <v>181.7816547419707</v>
       </c>
       <c r="N43" t="n">
-        <v>260.8992970698754</v>
+        <v>266.5671247272168</v>
       </c>
       <c r="O43" t="n">
-        <v>317.9609498066898</v>
+        <v>323.6287774640312</v>
       </c>
       <c r="P43" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566179</v>
       </c>
       <c r="Q43" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566179</v>
       </c>
       <c r="R43" t="n">
-        <v>348.9341968566189</v>
+        <v>348.9341968566179</v>
       </c>
       <c r="S43" t="n">
-        <v>330.2384913528306</v>
+        <v>330.2384913528297</v>
       </c>
       <c r="T43" t="n">
-        <v>304.4669131583381</v>
+        <v>304.4669131583374</v>
       </c>
       <c r="U43" t="n">
-        <v>218.7359006415255</v>
+        <v>218.7359006415249</v>
       </c>
       <c r="V43" t="n">
-        <v>167.5186566697543</v>
+        <v>167.5186566697539</v>
       </c>
       <c r="W43" t="n">
-        <v>81.56873086690939</v>
+        <v>81.56873086690906</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300776</v>
+        <v>57.04642420300758</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283625</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773299</v>
+        <v>933.9068305773293</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046951</v>
+        <v>779.1083762046947</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405665</v>
+        <v>596.787367840566</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850743</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7648196416496</v>
+        <v>173.7648196416494</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I44" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J44" t="n">
-        <v>71.69495660791927</v>
+        <v>71.69495660791921</v>
       </c>
       <c r="K44" t="n">
-        <v>439.7785456635719</v>
+        <v>240.3602995897151</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2994455845561</v>
+        <v>501.8811995106993</v>
       </c>
       <c r="M44" t="n">
-        <v>1008.89838190239</v>
+        <v>809.4801358285333</v>
       </c>
       <c r="N44" t="n">
-        <v>1306.842593048821</v>
+        <v>1107.424346974964</v>
       </c>
       <c r="O44" t="n">
-        <v>1742.413471174468</v>
+        <v>1343.576979026755</v>
       </c>
       <c r="P44" t="n">
-        <v>1906.289896138899</v>
+        <v>1706.871650065043</v>
       </c>
       <c r="Q44" t="n">
-        <v>1952.132506723903</v>
+        <v>1898.337848644313</v>
       </c>
       <c r="R44" t="n">
-        <v>1986.054464679668</v>
+        <v>1981.805372454359</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679668</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057597</v>
+        <v>1966.477482057595</v>
       </c>
       <c r="U44" t="n">
-        <v>1916.102355027746</v>
+        <v>1916.102355027744</v>
       </c>
       <c r="V44" t="n">
-        <v>1788.506711918291</v>
+        <v>1788.506711918289</v>
       </c>
       <c r="W44" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882291</v>
       </c>
       <c r="X44" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855327</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113631</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>690.4049538075953</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="C45" t="n">
-        <v>515.9519245264684</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="D45" t="n">
-        <v>515.9519245264684</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="E45" t="n">
-        <v>515.9519245264684</v>
+        <v>324.7047260557292</v>
       </c>
       <c r="F45" t="n">
-        <v>369.4173665533533</v>
+        <v>178.1701680826141</v>
       </c>
       <c r="G45" t="n">
-        <v>230.9682877643324</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008132</v>
       </c>
       <c r="K45" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781731</v>
       </c>
       <c r="L45" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898771</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670813</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579974</v>
       </c>
       <c r="O45" t="n">
-        <v>1646.036812456933</v>
+        <v>1646.036812456931</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.410893930172</v>
+        <v>1881.41089393017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679666</v>
       </c>
       <c r="R45" t="n">
-        <v>1902.377940807625</v>
+        <v>1902.377940807623</v>
       </c>
       <c r="S45" t="n">
-        <v>1734.193916307066</v>
+        <v>1734.193916307064</v>
       </c>
       <c r="T45" t="n">
-        <v>1734.193916307066</v>
+        <v>1533.142958295068</v>
       </c>
       <c r="U45" t="n">
-        <v>1709.456078239963</v>
+        <v>1304.93787599385</v>
       </c>
       <c r="V45" t="n">
-        <v>1474.303970008221</v>
+        <v>1069.785767762107</v>
       </c>
       <c r="W45" t="n">
-        <v>1220.066613280019</v>
+        <v>815.5484110339053</v>
       </c>
       <c r="X45" t="n">
-        <v>1012.215113074486</v>
+        <v>811.1641550624882</v>
       </c>
       <c r="Y45" t="n">
-        <v>804.4548143095324</v>
+        <v>652.1575180812526</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="E46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="F46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="G46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="H46" t="n">
-        <v>45.38891695093623</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="I46" t="n">
-        <v>45.38891695093623</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="J46" t="n">
-        <v>45.38891695093623</v>
+        <v>39.72108929359332</v>
       </c>
       <c r="K46" t="n">
-        <v>50.23895349986451</v>
+        <v>44.5711258425216</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9717650763143</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993136</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N46" t="n">
-        <v>266.5671247272182</v>
+        <v>260.8992970698753</v>
       </c>
       <c r="O46" t="n">
-        <v>323.6287774640327</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P46" t="n">
-        <v>348.9341968566193</v>
+        <v>343.2663691992764</v>
       </c>
       <c r="Q46" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="R46" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566182</v>
       </c>
       <c r="S46" t="n">
-        <v>330.238491352831</v>
+        <v>330.23849135283</v>
       </c>
       <c r="T46" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583377</v>
       </c>
       <c r="U46" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415251</v>
       </c>
       <c r="V46" t="n">
-        <v>167.5186566697545</v>
+        <v>167.518656669754</v>
       </c>
       <c r="W46" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690918</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300782</v>
+        <v>57.04642420300763</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359332</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>161.9386408393896</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K11" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>352.197529050791</v>
@@ -8699,10 +8699,10 @@
         <v>337.506376885244</v>
       </c>
       <c r="N11" t="n">
-        <v>136.393175779226</v>
+        <v>189.8618434756847</v>
       </c>
       <c r="O11" t="n">
-        <v>340.9610087622709</v>
+        <v>142.262169089219</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,22 +8769,22 @@
         <v>100.4849377176919</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>92.80049616602119</v>
       </c>
       <c r="L12" t="n">
-        <v>276.6901134495373</v>
+        <v>276.6901134495374</v>
       </c>
       <c r="M12" t="n">
         <v>71.45974579322795</v>
       </c>
       <c r="N12" t="n">
-        <v>58.79688584568157</v>
+        <v>143.7669130577057</v>
       </c>
       <c r="O12" t="n">
-        <v>188.2360272577166</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4100108652724</v>
+        <v>279.4100108652725</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562193</v>
       </c>
       <c r="L14" t="n">
-        <v>352.197529050791</v>
+        <v>352.1975290507916</v>
       </c>
       <c r="M14" t="n">
-        <v>337.506376885244</v>
+        <v>316.3395709660169</v>
       </c>
       <c r="N14" t="n">
-        <v>276.7910829353817</v>
+        <v>335.0920154522784</v>
       </c>
       <c r="O14" t="n">
         <v>142.262169089219</v>
       </c>
       <c r="P14" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495373</v>
+        <v>276.6901134495379</v>
       </c>
       <c r="M15" t="n">
-        <v>71.45974579322795</v>
+        <v>183.4638718317477</v>
       </c>
       <c r="N15" t="n">
-        <v>58.79688584568157</v>
+        <v>257.495725518734</v>
       </c>
       <c r="O15" t="n">
-        <v>268.3305061496413</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4100108652724</v>
+        <v>80.71117119222058</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>345.0395547181068</v>
+        <v>352.1975290507916</v>
       </c>
       <c r="M17" t="n">
-        <v>138.8075372121921</v>
+        <v>337.5063768852445</v>
       </c>
       <c r="N17" t="n">
-        <v>335.0920154522778</v>
+        <v>136.393175779226</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9610087622709</v>
+        <v>163.4340011146426</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>152.1644257553284</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>276.6901134495373</v>
+        <v>77.99127377648543</v>
       </c>
       <c r="M18" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662804</v>
       </c>
       <c r="N18" t="n">
         <v>58.79688584568157</v>
       </c>
       <c r="O18" t="n">
-        <v>274.9307408922498</v>
+        <v>274.9307408922504</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4100108652724</v>
+        <v>167.1091996080234</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9404,22 +9404,22 @@
         <v>153.7763792562193</v>
       </c>
       <c r="L20" t="n">
-        <v>352.197529050791</v>
+        <v>345.039554718108</v>
       </c>
       <c r="M20" t="n">
-        <v>138.8075372121921</v>
+        <v>337.5063768852445</v>
       </c>
       <c r="N20" t="n">
-        <v>281.6283738620134</v>
+        <v>136.393175779226</v>
       </c>
       <c r="O20" t="n">
-        <v>340.9610087622709</v>
+        <v>340.9610087622714</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K21" t="n">
         <v>92.80049616602119</v>
       </c>
       <c r="L21" t="n">
-        <v>276.6901134495373</v>
+        <v>162.9613009885101</v>
       </c>
       <c r="M21" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662804</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4957255187334</v>
+        <v>58.79688584568157</v>
       </c>
       <c r="O21" t="n">
-        <v>241.2964073231469</v>
+        <v>274.9307408922504</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652724</v>
+        <v>279.410010865273</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562193</v>
       </c>
       <c r="L23" t="n">
         <v>153.4986893777391</v>
       </c>
       <c r="M23" t="n">
-        <v>159.9793692376139</v>
+        <v>337.5063768852445</v>
       </c>
       <c r="N23" t="n">
-        <v>335.0920154522776</v>
+        <v>313.9252095330508</v>
       </c>
       <c r="O23" t="n">
-        <v>340.9610087622706</v>
+        <v>340.9610087622714</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>189.9953998150035</v>
+        <v>164.3893021922882</v>
       </c>
       <c r="M24" t="n">
-        <v>270.1585854662795</v>
+        <v>270.1585854662804</v>
       </c>
       <c r="N24" t="n">
         <v>58.79688584568157</v>
       </c>
       <c r="O24" t="n">
-        <v>274.9307408922495</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P24" t="n">
-        <v>80.71117119222058</v>
+        <v>279.410010865273</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637500003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404071</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404071</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23258,25 +23258,25 @@
         <v>204.1025192117104</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.0517191689128</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2990476204916</v>
+        <v>100.0142598545872</v>
       </c>
       <c r="F11" t="n">
         <v>228.2447232899413</v>
       </c>
       <c r="G11" t="n">
-        <v>37.45125843394374</v>
+        <v>236.1500981069956</v>
       </c>
       <c r="H11" t="n">
-        <v>60.77184114539185</v>
+        <v>155.5045423845799</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.74649515820838</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585459</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1209360183647</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>170.6096462656429</v>
@@ -23324,7 +23324,7 @@
         <v>191.0997782266989</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.907776531231576</v>
+        <v>8.907776531231519</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1025192117104</v>
+        <v>5.40367953865794</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>186.6415693192373</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689128</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.60020794743977</v>
+        <v>203.2990476204916</v>
       </c>
       <c r="F14" t="n">
-        <v>33.57445350575</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069956</v>
+        <v>236.1500981069955</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845799</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820835</v>
+        <v>11.7464951582083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120972</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585459</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.6726250995568</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>149.1209360183647</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656429</v>
+        <v>98.71385055774608</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>986379.4635603646</v>
+        <v>986379.4635603651</v>
       </c>
     </row>
     <row r="7">
@@ -26323,34 +26323,34 @@
         <v>369096.1143616331</v>
       </c>
       <c r="F2" t="n">
-        <v>369096.1143616333</v>
+        <v>369096.1143616334</v>
       </c>
       <c r="G2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.929178749</v>
       </c>
       <c r="H2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="I2" t="n">
         <v>431046.9291787489</v>
-      </c>
-      <c r="I2" t="n">
-        <v>431046.9291787488</v>
       </c>
       <c r="J2" t="n">
         <v>431046.929178749</v>
       </c>
       <c r="K2" t="n">
+        <v>431046.9291787492</v>
+      </c>
+      <c r="L2" t="n">
         <v>431046.929178749</v>
       </c>
-      <c r="L2" t="n">
-        <v>431046.9291787492</v>
-      </c>
       <c r="M2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787486</v>
@@ -26375,10 +26375,10 @@
         <v>306415.5272794351</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.104724785567669e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554035</v>
+        <v>97259.69009554017</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>151851.7906719067</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554033</v>
+        <v>97259.69009554019</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513442</v>
+        <v>41944.38525513437</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274493</v>
+        <v>21941.98208274511</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>339717.148032153</v>
       </c>
       <c r="F4" t="n">
-        <v>339717.148032153</v>
+        <v>339717.1480321531</v>
       </c>
       <c r="G4" t="n">
         <v>407016.1489321863</v>
@@ -26436,7 +26436,7 @@
         <v>407016.1489321863</v>
       </c>
       <c r="I4" t="n">
-        <v>407016.1489321862</v>
+        <v>407016.1489321863</v>
       </c>
       <c r="J4" t="n">
         <v>402100.501383587</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447103</v>
+        <v>29925.21762447104</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447103</v>
+        <v>29925.21762447107</v>
       </c>
       <c r="G5" t="n">
-        <v>40145.87373277351</v>
+        <v>40145.87373277353</v>
       </c>
       <c r="H5" t="n">
-        <v>40145.87373277351</v>
+        <v>40145.87373277353</v>
       </c>
       <c r="I5" t="n">
-        <v>40145.87373277349</v>
+        <v>40145.87373277352</v>
       </c>
       <c r="J5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="K5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="L5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="M5" t="n">
-        <v>49949.23426624526</v>
+        <v>49949.23426624525</v>
       </c>
       <c r="N5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624523</v>
       </c>
       <c r="O5" t="n">
-        <v>49949.23426624526</v>
+        <v>49949.23426624524</v>
       </c>
       <c r="P5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624523</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55907.51272252006</v>
+        <v>-55911.92630038818</v>
       </c>
       <c r="C6" t="n">
-        <v>-55907.51272252006</v>
+        <v>-55911.92630038818</v>
       </c>
       <c r="D6" t="n">
-        <v>-55907.51272252006</v>
+        <v>-55911.92630038818</v>
       </c>
       <c r="E6" t="n">
-        <v>-306961.7785744261</v>
+        <v>-307256.7824545076</v>
       </c>
       <c r="F6" t="n">
-        <v>-546.2512949907432</v>
+        <v>-841.2551750725769</v>
       </c>
       <c r="G6" t="n">
-        <v>-113374.7835817514</v>
+        <v>-113374.783581751</v>
       </c>
       <c r="H6" t="n">
-        <v>-16115.09348621095</v>
+        <v>-16115.09348621115</v>
       </c>
       <c r="I6" t="n">
-        <v>-16115.09348621094</v>
+        <v>-16115.09348621079</v>
       </c>
       <c r="J6" t="n">
         <v>-180527.7084400941</v>
       </c>
       <c r="K6" t="n">
-        <v>-28675.91776818748</v>
+        <v>-28675.91776818731</v>
       </c>
       <c r="L6" t="n">
-        <v>-125935.6078637275</v>
+        <v>-125935.6078637276</v>
       </c>
       <c r="M6" t="n">
-        <v>-61995.89828087958</v>
+        <v>-61995.8982808794</v>
       </c>
       <c r="N6" t="n">
-        <v>-20051.51302574497</v>
+        <v>-20051.51302574507</v>
       </c>
       <c r="O6" t="n">
-        <v>-41993.49510848998</v>
+        <v>-41993.49510849025</v>
       </c>
       <c r="P6" t="n">
-        <v>-20051.51302574509</v>
+        <v>-20051.51302574512</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="F2" t="n">
         <v>178.6313224517702</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
@@ -26719,13 +26719,13 @@
         <v>201.4325717917745</v>
       </c>
       <c r="N2" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="O2" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="P2" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="3">
@@ -26799,37 +26799,37 @@
         <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="H4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730516</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="J4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="M4" t="n">
         <v>496.5136161699169</v>
       </c>
       <c r="N4" t="n">
-        <v>496.5136161699169</v>
+        <v>496.5136161699164</v>
       </c>
       <c r="O4" t="n">
-        <v>496.5136161699169</v>
+        <v>496.5136161699164</v>
       </c>
       <c r="P4" t="n">
-        <v>496.5136161699169</v>
+        <v>496.5136161699164</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.4274776034311</v>
+        <v>27.42747760343133</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891803</v>
+        <v>52.43048156891797</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343116</v>
+        <v>27.42747760343138</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.5136161699172</v>
+        <v>496.5136161699165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.003997547551987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.4274776034311</v>
+        <v>27.42747760343133</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>198.6988396730519</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="D11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="E11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="F11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="G11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="H11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="I11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="T11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="U11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="V11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="W11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="X11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.03951821277744</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -28187,7 +28187,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3416087588243102</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="U12" t="n">
-        <v>27.22419180515454</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="V12" t="n">
-        <v>178.6313224517702</v>
+        <v>148.3584034134778</v>
       </c>
       <c r="W12" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517702</v>
+        <v>7.07414553042554</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28263,10 +28263,10 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H13" t="n">
-        <v>160.1480792967325</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="I13" t="n">
-        <v>148.4181228403268</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="J13" t="n">
         <v>76.82634995341206</v>
@@ -28278,13 +28278,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>122.4587211649718</v>
+        <v>109.2506756341811</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>47.34084264582999</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R13" t="n">
-        <v>166.7788770416304</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="S13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="T13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="U13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="V13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="W13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="X13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.6313224517702</v>
+        <v>178.6313224517701</v>
       </c>
     </row>
     <row r="14">
@@ -28412,10 +28412,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>125.5225302846922</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0645880011306</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3416087588243102</v>
+        <v>31.62478379195466</v>
       </c>
       <c r="U15" t="n">
         <v>178.6313224517702</v>
@@ -28466,7 +28466,7 @@
         <v>178.6313224517702</v>
       </c>
       <c r="W15" t="n">
-        <v>178.6313224517702</v>
+        <v>52.99614348786719</v>
       </c>
       <c r="X15" t="n">
         <v>178.6313224517702</v>
@@ -28515,19 +28515,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>57.74896808329964</v>
+        <v>122.4587211649723</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>47.34084264582901</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.6313224517702</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
         <v>166.7788770416304</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="C17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="D17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="E17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="I17" t="n">
         <v>190.3778176099785</v>
@@ -28621,16 +28621,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="W17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="X17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>106.767655812983</v>
+        <v>23.07423079643701</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3416087588243102</v>
+        <v>0.3416087588237418</v>
       </c>
       <c r="U18" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V18" t="n">
-        <v>34.10174747637342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>52.99614348786719</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.02099274836289</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28767,7 +28767,7 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R19" t="n">
-        <v>166.7788770416304</v>
+        <v>64.96788960805652</v>
       </c>
       <c r="S19" t="n">
         <v>219.9413202405249</v>
@@ -28776,10 +28776,10 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
-        <v>87.60743451036721</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>53.43880365077558</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711954</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>128.5838336669734</v>
       </c>
       <c r="H21" t="n">
         <v>109.5415757500918</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S21" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588237418</v>
       </c>
       <c r="U21" t="n">
-        <v>101.5831961043203</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>34.10174747637285</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>7.074145530425625</v>
+        <v>7.074145530425056</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.98385610425251</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29016,7 +29016,7 @@
         <v>286.3062741834191</v>
       </c>
       <c r="V22" t="n">
-        <v>131.459796399139</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>97.90680642740581</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711953</v>
       </c>
     </row>
     <row r="24">
@@ -29117,19 +29117,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H24" t="n">
         <v>109.5415757500918</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>94.04699854659654</v>
+        <v>0.3416087588237531</v>
       </c>
       <c r="U24" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>108.4297523812235</v>
       </c>
       <c r="W24" t="n">
-        <v>52.99614348786804</v>
+        <v>52.99614348786719</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -29208,13 +29208,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7571345188087</v>
       </c>
       <c r="H25" t="n">
         <v>160.1480792967325</v>
       </c>
       <c r="I25" t="n">
-        <v>15.66543025250917</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J25" t="n">
         <v>76.82634995341206</v>
@@ -29244,13 +29244,13 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S25" t="n">
-        <v>219.9413202405249</v>
+        <v>21.24248056747251</v>
       </c>
       <c r="T25" t="n">
         <v>226.9464342043221</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3062741834191</v>
+        <v>184.4952867498452</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -29317,7 +29317,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.0020902228562</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R26" t="n">
         <v>149.0020902228565</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>99.25585642047272</v>
       </c>
       <c r="C27" t="n">
-        <v>4.478595565424484</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>149.0020902228565</v>
@@ -29408,13 +29408,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G28" t="n">
         <v>149.0020902228565</v>
@@ -29451,31 +29451,31 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I28" t="n">
+        <v>148.4181228403268</v>
+      </c>
+      <c r="J28" t="n">
+        <v>76.82634995341206</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>91.9458840392837</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="J28" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="P28" t="n">
-        <v>107.7567096621099</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.58072672426806</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R28" t="n">
         <v>149.0020902228565</v>
@@ -29545,7 +29545,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="N29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228571</v>
       </c>
       <c r="O29" t="n">
         <v>149.0020902228565</v>
@@ -29557,7 +29557,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="R29" t="n">
-        <v>149.002090222856</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S29" t="n">
         <v>149.0020902228565</v>
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>14.17653688235757</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>149.0020902228565</v>
+        <v>138.7163708932376</v>
       </c>
       <c r="X30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E31" t="n">
         <v>149.0020902228565</v>
@@ -29688,28 +29688,28 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I31" t="n">
-        <v>148.4181228403268</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J31" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5781244730712</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="O31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>24.78118993248635</v>
       </c>
       <c r="Q31" t="n">
         <v>66.58072672426806</v>
@@ -29770,7 +29770,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228567</v>
       </c>
       <c r="K32" t="n">
         <v>149.0020902228565</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="C33" t="n">
-        <v>26.1140391040831</v>
-      </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>138.7163708932376</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,19 +29876,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F34" t="n">
-        <v>149.0020902228565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>149.0020902228565</v>
@@ -29928,10 +29928,10 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J34" t="n">
+        <v>76.82634995341206</v>
+      </c>
+      <c r="K34" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>149.0020902228565</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>22.72488855077069</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.0020902228565</v>
+        <v>95.52692623920895</v>
       </c>
       <c r="R34" t="n">
         <v>149.0020902228565</v>
@@ -30007,19 +30007,19 @@
         <v>190.3778176099785</v>
       </c>
       <c r="J35" t="n">
+        <v>147.0945333275438</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>40.13730825033718</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>195.5598675371588</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,10 +30031,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>117.1219416806167</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S35" t="n">
-        <v>197.1405594429799</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T35" t="n">
         <v>201.4325717917745</v>
@@ -30068,19 +30068,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>112.8714320971956</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
         <v>79.79315073593983</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>77.34379545390343</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>172.9718995403879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.725078441760488</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30220,31 +30220,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="C38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="D38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="E38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="F38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="H38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="I38" t="n">
         <v>190.3778176099785</v>
       </c>
       <c r="J38" t="n">
-        <v>34.26460399572137</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,40 +30256,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>151.3865456763361</v>
       </c>
       <c r="O38" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>117.1219416806167</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="S38" t="n">
         <v>197.1405594429799</v>
       </c>
       <c r="T38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="39">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>133.8516046436653</v>
       </c>
       <c r="C39" t="n">
-        <v>86.13108653495846</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,16 +30353,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.725078441760473</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.725078441759393</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="C41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="D41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="E41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="F41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="G41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="H41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="I41" t="n">
         <v>190.3778176099785</v>
       </c>
       <c r="J41" t="n">
-        <v>40.13730825033718</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="K41" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,13 +30493,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>195.5598675371588</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>34.2646039957192</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30511,22 +30511,22 @@
         <v>197.1405594429799</v>
       </c>
       <c r="T41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="U41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="V41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="W41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="X41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="Y41" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,25 +30587,25 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>41.19481771618277</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>119.0777468299604</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
     </row>
     <row r="43">
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.725078441759052</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R43" t="n">
-        <v>172.5039554833904</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="T43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="V43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="W43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917747</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="C44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="D44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="E44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="F44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="G44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="H44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="I44" t="n">
         <v>190.3778176099785</v>
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.0945333275411</v>
       </c>
       <c r="R44" t="n">
-        <v>151.3865456763383</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="S44" t="n">
-        <v>197.1405594429799</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
     <row r="45">
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53.62382175294969</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,10 +30827,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>48.26612516588114</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H46" t="n">
-        <v>165.873157738493</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I46" t="n">
         <v>148.4181228403268</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.58072672426806</v>
+        <v>72.30580516602743</v>
       </c>
       <c r="R46" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="T46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="U46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="V46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="W46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917746</v>
       </c>
     </row>
   </sheetData>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.13886133835214</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L11" t="n">
         <v>198.6988396730519</v>
@@ -35419,10 +35419,10 @@
         <v>198.6988396730519</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>53.46866769645872</v>
       </c>
       <c r="O11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>165.5317423883137</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6647408465574</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>198.6988396730519</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>84.97002721202416</v>
       </c>
       <c r="O12" t="n">
-        <v>112.0041260385186</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P12" t="n">
         <v>198.6988396730519</v>
@@ -35559,10 +35559,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.48324315503764</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.21319961144338</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>62.35637532974727</v>
       </c>
       <c r="M13" t="n">
-        <v>198.6988396730519</v>
+        <v>185.4907941422612</v>
       </c>
       <c r="N13" t="n">
         <v>79.91681043222691</v>
       </c>
       <c r="O13" t="n">
-        <v>104.9788757133193</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P13" t="n">
         <v>25.56102968948145</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.85244541013974</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.29683567103626</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>170.3690333149454</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="M14" t="n">
-        <v>198.6988396730519</v>
+        <v>177.5320337538248</v>
       </c>
       <c r="N14" t="n">
-        <v>140.3979071561557</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q14" t="n">
         <v>46.30566725758031</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.60609762271693</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L15" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>112.0041260385197</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="O15" t="n">
-        <v>192.0986049304434</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>62.35637532974727</v>
       </c>
       <c r="M16" t="n">
-        <v>133.9890865913797</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N16" t="n">
         <v>79.91681043222691</v>
       </c>
       <c r="O16" t="n">
-        <v>57.63803306748931</v>
+        <v>104.9788757133183</v>
       </c>
       <c r="P16" t="n">
         <v>25.56102968948145</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0505957275021</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>32.29683567103626</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5408653403678</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N17" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>198.6988396730519</v>
+        <v>21.17183202542354</v>
       </c>
       <c r="P17" t="n">
         <v>165.5317423883137</v>
@@ -35963,22 +35963,22 @@
         <v>25.60609762271693</v>
       </c>
       <c r="K18" t="n">
-        <v>59.36392958930721</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6988396730519</v>
+        <v>86.39802841580283</v>
       </c>
       <c r="Q18" t="n">
         <v>105.7005765146418</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>198.6988396730519</v>
+        <v>191.5408653403689</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N20" t="n">
-        <v>145.2351980827874</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="P20" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758031</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.60609762271693</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>198.6988396730519</v>
+        <v>84.9700272120247</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>165.064506103949</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="P21" t="n">
-        <v>198.6988396730519</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.29683567103626</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>170.3690333149454</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>21.17183202542182</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N23" t="n">
-        <v>198.6988396730516</v>
+        <v>177.5320337538248</v>
       </c>
       <c r="O23" t="n">
-        <v>198.6988396730516</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="P23" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K24" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
-        <v>112.004126038518</v>
+        <v>86.39802841580277</v>
       </c>
       <c r="M24" t="n">
-        <v>198.6988396730516</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>198.6988396730516</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>198.6988396730524</v>
       </c>
       <c r="Q24" t="n">
         <v>105.7005765146418</v>
@@ -36610,13 +36610,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P26" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.3077574804365</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223982</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3866172046441818</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5839673825297806</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.17574026944447</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>4.899026817099273</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3584655526038</v>
+        <v>154.302259369031</v>
       </c>
       <c r="M28" t="n">
         <v>76.24011850808009</v>
       </c>
       <c r="N28" t="n">
-        <v>79.91681043222691</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O28" t="n">
-        <v>206.6401232903459</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P28" t="n">
-        <v>133.3177393515914</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.42136349858845</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K29" t="n">
         <v>319.3711235378019</v>
@@ -36841,19 +36841,19 @@
         <v>459.7080865034969</v>
       </c>
       <c r="N29" t="n">
-        <v>449.9558388556147</v>
+        <v>449.9558388556152</v>
       </c>
       <c r="O29" t="n">
         <v>387.5401023963828</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223928</v>
+        <v>31.88014854223977</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.386617204644125</v>
       </c>
       <c r="E31" t="n">
-        <v>2.568127576287367</v>
+        <v>2.56812757628731</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925236</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5839673825297238</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944447</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>107.4771512901705</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L31" t="n">
-        <v>211.3584655526038</v>
+        <v>211.3584655526037</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24011850808009</v>
+        <v>225.2422087309366</v>
       </c>
       <c r="N31" t="n">
-        <v>79.91681043222691</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O31" t="n">
-        <v>206.6401232903459</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P31" t="n">
-        <v>25.56102968948145</v>
+        <v>50.34221962196779</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938928</v>
+        <v>181.298925893893</v>
       </c>
       <c r="K32" t="n">
         <v>319.3711235378019</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925264</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.17574026944445</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.899026817099273</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L34" t="n">
         <v>211.3584655526038</v>
@@ -37239,13 +37239,13 @@
         <v>79.91681043222691</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36292161826</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P34" t="n">
         <v>25.56102968948145</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858845</v>
+        <v>28.94619951494089</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7294074628108</v>
+        <v>179.39136899858</v>
       </c>
       <c r="K35" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L35" t="n">
-        <v>304.2998334230485</v>
+        <v>465.5950969644858</v>
       </c>
       <c r="M35" t="n">
         <v>310.7059962806404</v>
       </c>
       <c r="N35" t="n">
-        <v>496.5136161699169</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O35" t="n">
         <v>238.5380121735263</v>
@@ -37327,10 +37327,10 @@
         <v>46.30566725758031</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.292012348794536</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>292.8490715269737</v>
       </c>
       <c r="M36" t="n">
-        <v>394.2453179567723</v>
+        <v>394.2453179567719</v>
       </c>
       <c r="N36" t="n">
         <v>420.5454884978719</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.725078441760014</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>76.24011850808009</v>
       </c>
       <c r="N37" t="n">
-        <v>79.91681043222691</v>
+        <v>85.6418888739874</v>
       </c>
       <c r="O37" t="n">
         <v>57.63803306748931</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.56143966675764</v>
+        <v>233.7294074628109</v>
       </c>
       <c r="K38" t="n">
         <v>170.3690333149454</v>
@@ -37552,19 +37552,19 @@
         <v>310.7059962806404</v>
       </c>
       <c r="N38" t="n">
-        <v>300.9537486327582</v>
+        <v>452.3402943090943</v>
       </c>
       <c r="O38" t="n">
-        <v>439.9705839653008</v>
+        <v>238.5380121735263</v>
       </c>
       <c r="P38" t="n">
-        <v>366.9643141800882</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q38" t="n">
         <v>46.30566725758031</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.31063011115791</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>62.35637532974727</v>
       </c>
       <c r="M40" t="n">
-        <v>81.96519694984056</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N40" t="n">
-        <v>79.91681043222691</v>
+        <v>85.6418888739863</v>
       </c>
       <c r="O40" t="n">
         <v>57.63803306748931</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.43414392137345</v>
+        <v>233.7294074628109</v>
       </c>
       <c r="K41" t="n">
-        <v>371.8016051067199</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L41" t="n">
         <v>264.1625251727113</v>
@@ -37789,13 +37789,13 @@
         <v>310.7059962806404</v>
       </c>
       <c r="N41" t="n">
-        <v>496.5136161699169</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5380121735263</v>
+        <v>272.8026161692455</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800884</v>
       </c>
       <c r="Q41" t="n">
         <v>46.30566725758031</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.60609762271693</v>
+        <v>25.60609762271515</v>
       </c>
       <c r="K42" t="n">
         <v>171.6647408465574</v>
@@ -37871,7 +37871,7 @@
         <v>420.5454884978719</v>
       </c>
       <c r="O42" t="n">
-        <v>317.6304180575319</v>
+        <v>317.6304180575316</v>
       </c>
       <c r="P42" t="n">
         <v>237.7515974477166</v>
@@ -37947,7 +37947,7 @@
         <v>76.24011850808009</v>
       </c>
       <c r="N43" t="n">
-        <v>79.91681043222691</v>
+        <v>85.64188887398596</v>
       </c>
       <c r="O43" t="n">
         <v>57.63803306748931</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.72507844176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>32.29683567103626</v>
       </c>
       <c r="K44" t="n">
-        <v>371.8016051067199</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L44" t="n">
         <v>264.1625251727113</v>
@@ -38029,19 +38029,19 @@
         <v>300.9537486327582</v>
       </c>
       <c r="O44" t="n">
-        <v>439.9705839653008</v>
+        <v>238.5380121735263</v>
       </c>
       <c r="P44" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800883</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.30566725758031</v>
+        <v>193.4002005851214</v>
       </c>
       <c r="R44" t="n">
-        <v>34.26460399572157</v>
+        <v>84.31063011115791</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.292012348794678</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271693</v>
+        <v>25.60609762271515</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.725078441760473</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>25.56102968948145</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.725078441759369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
